--- a/UC/POC/METADATA_SCHEMA.xlsx
+++ b/UC/POC/METADATA_SCHEMA.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulp\Documents\TFG\Auto Vault\UC\POC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulp\Documents\TFG\meta-vault\UC\POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED295E6-EE94-4976-889D-C635C7D32F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBC0613-A341-4036-ADE7-78B1D78F2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="2" activeTab="6" xr2:uid="{19CBC873-2384-4878-8549-80AA61FB032C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{19CBC873-2384-4878-8549-80AA61FB032C}"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIRONMENTS" sheetId="1" r:id="rId1"/>
-    <sheet name="ENVIRONMENT_CONNECTIONS" sheetId="2" r:id="rId2"/>
-    <sheet name="MODEL" sheetId="3" r:id="rId3"/>
-    <sheet name="DATASETS" sheetId="4" r:id="rId4"/>
-    <sheet name="DATASETS_SEGMENTS" sheetId="5" r:id="rId5"/>
-    <sheet name="RELATIONSHIPS" sheetId="6" r:id="rId6"/>
-    <sheet name="DATASETS_FIELDS" sheetId="7" r:id="rId7"/>
+    <sheet name="CONNECTIONS" sheetId="9" r:id="rId2"/>
+    <sheet name="ENVIRONMENT_CONNECTIONS" sheetId="2" r:id="rId3"/>
+    <sheet name="SETCONNECTION_CONNECTIONS" sheetId="8" r:id="rId4"/>
+    <sheet name="MODEL" sheetId="3" r:id="rId5"/>
+    <sheet name="DATASETS" sheetId="4" r:id="rId6"/>
+    <sheet name="DATASETS_SEGMENTS" sheetId="5" r:id="rId7"/>
+    <sheet name="RELATIONSHIPS" sheetId="6" r:id="rId8"/>
+    <sheet name="DATASETS_FIELDS" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="131">
   <si>
     <t>COD_ENVIRONMENT</t>
   </si>
@@ -56,9 +58,6 @@
     <t>COD_CONNECTION</t>
   </si>
   <si>
-    <t>DESC_ENVIRONMENT_CONNECTION</t>
-  </si>
-  <si>
     <t>DESC_MODEL</t>
   </si>
   <si>
@@ -149,9 +148,6 @@
     <t>TFG</t>
   </si>
   <si>
-    <t>EDW_LAND</t>
-  </si>
-  <si>
     <t>DS_CUSTOMER</t>
   </si>
   <si>
@@ -185,15 +181,9 @@
     <t>NATION</t>
   </si>
   <si>
-    <t>CUS_NAITON</t>
-  </si>
-  <si>
     <t>Dataset con todos los paises</t>
   </si>
   <si>
-    <t>Dataset con los paises de todos los clientes</t>
-  </si>
-  <si>
     <t>DS_RL_CUTOMER_NATION</t>
   </si>
   <si>
@@ -324,19 +314,148 @@
   </si>
   <si>
     <t>ID_NATION</t>
+  </si>
+  <si>
+    <t>DES_SETCONNECTION_CONNECTION</t>
+  </si>
+  <si>
+    <t>EDW_DATAVAULT_TR</t>
+  </si>
+  <si>
+    <t>EDW_DATAVAULT_TR_DES</t>
+  </si>
+  <si>
+    <t>Description for RELATIONSHIP EDW_DATAVAULT Set Connection - EDW_DATAVAULT_DES Connection</t>
+  </si>
+  <si>
+    <t>EDW_DATAVAULT_TR_PRE</t>
+  </si>
+  <si>
+    <t>Description for RELATIONSHIP EDW_DATAVAULT Set Connection - EDW_DATAVAULT_PRE Connection</t>
+  </si>
+  <si>
+    <t>Description for RELATIONSHIP EDW_DATAVAULT Set Connection - EDW_DATAVAULT Connection</t>
+  </si>
+  <si>
+    <t>Description for RELATIONSHIP EDW_LAND_PSA Set Connection - EDW_LAND_PSA_LOW Connection</t>
+  </si>
+  <si>
+    <t>Description for RELATIONSHIP EDW_LAND_PSA Set Connection - EDW_LAND_PSA_MID Connection</t>
+  </si>
+  <si>
+    <t>Description for RELATIONSHIP EDW_LAND_PSA Set Connection - EDW_LAND_PSA_BIG Connection</t>
+  </si>
+  <si>
+    <t>SRC</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Description for TPCH_SF_LOW Connection</t>
+  </si>
+  <si>
+    <t>bn94810.west-us-2.azure.snowflakecomputing.com</t>
+  </si>
+  <si>
+    <t>EDW_DES</t>
+  </si>
+  <si>
+    <t>DC_DATA_PSA</t>
+  </si>
+  <si>
+    <t>Description for TPCH_SF_MID Connection</t>
+  </si>
+  <si>
+    <t>EDW_PRE</t>
+  </si>
+  <si>
+    <t>Description for TPCH_SF_BIG Connection</t>
+  </si>
+  <si>
+    <t>EDW</t>
+  </si>
+  <si>
+    <t>COD_AREA_PHASE</t>
+  </si>
+  <si>
+    <t>COD_TYPE_PHASE</t>
+  </si>
+  <si>
+    <t>DES_CONNECTION</t>
+  </si>
+  <si>
+    <t>COD_PATH_0</t>
+  </si>
+  <si>
+    <t>COD_PATH_1</t>
+  </si>
+  <si>
+    <t>COD_PATH_2</t>
+  </si>
+  <si>
+    <t>COD_PATH_3</t>
+  </si>
+  <si>
+    <t>DES_ENVIRONMENT_CONNECTION</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>EDW_LAND_RAW</t>
+  </si>
+  <si>
+    <t>EDW_LAND_RAW_LOW</t>
+  </si>
+  <si>
+    <t>EDW_LAND_RAW_MID</t>
+  </si>
+  <si>
+    <t>EDW_LAND_RAW_BIG</t>
+  </si>
+  <si>
+    <t>Description for RELATIONSHIP PRO Environment - EDW_LAND_PSA_BIG Connection</t>
+  </si>
+  <si>
+    <t>Description for RELATIONSHIP DES Environment - EDW_LAND_PSA_LOW Connection</t>
+  </si>
+  <si>
+    <t>Description for RELATIONSHIP PRE Environment - EDW_LAND_PSA_MID Connection</t>
+  </si>
+  <si>
+    <t>COD_DATASET_BUSINESS</t>
+  </si>
+  <si>
+    <t>HIER_PARTS</t>
+  </si>
+  <si>
+    <t>DS_HIER_PART</t>
+  </si>
+  <si>
+    <t>PAR_PART</t>
+  </si>
+  <si>
+    <t>HIER_PARTS LINK. Contiene detalles de PART.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -386,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -396,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,24 +882,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -786,24 +908,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287ADB72-FB5C-41E0-B04C-B8740A6CB68A}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19BA5E7-5514-4CB9-8AD4-7B6B08B8367B}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="129" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="124.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +1063,40 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +1105,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFA8D88-9885-4767-BDBB-7C512A153551}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5EDBFA-2678-49EA-92B9-B1558CD7F954}">
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
@@ -839,24 +1224,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -864,15 +1249,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1AFC7A-4F39-4E22-AE53-D03165D18823}">
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,99 +1268,124 @@
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="95.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="95.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>127</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +1393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5BC2D2-7501-412D-A1E4-428E8617439B}">
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
@@ -1004,70 +1414,70 @@
   <sheetData>
     <row r="1" spans="1:5" ht="81" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1075,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4D3E78-BC32-417B-9FD5-5754DE506CAE}">
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
@@ -1099,80 +1509,80 @@
   <sheetData>
     <row r="1" spans="1:8" ht="99" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
         <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1180,15 +1590,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9E5C1E-1AC5-414A-8F67-8B8360F48459}">
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,182 +1610,202 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" t="s">
-        <v>91</v>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/UC/POC/METADATA_SCHEMA.xlsx
+++ b/UC/POC/METADATA_SCHEMA.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulp\Documents\TFG\meta-vault\UC\POC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D81659-85E3-4ECE-9491-0ACAFBFAC2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="ENVIRONMENTS"/>
-    <sheet r:id="rId2" sheetId="2" name="CONNECTIONS"/>
-    <sheet r:id="rId3" sheetId="3" name="ENVIRONMENT_CONNECTIONS"/>
-    <sheet r:id="rId4" sheetId="4" name="SETCONNECTION_CONNECTIONS"/>
-    <sheet r:id="rId5" sheetId="5" name="MODEL"/>
-    <sheet r:id="rId6" sheetId="6" name="DATASETS"/>
-    <sheet r:id="rId7" sheetId="7" name="DATASETS_SEGMENTS"/>
-    <sheet r:id="rId8" sheetId="8" name="RELATIONSHIPS"/>
-    <sheet r:id="rId9" sheetId="9" name="DATASETS_FIELDS"/>
+    <sheet name="ENVIRONMENTS" sheetId="1" r:id="rId1"/>
+    <sheet name="CONNECTIONS" sheetId="2" r:id="rId2"/>
+    <sheet name="ENVIRONMENT_CONNECTIONS" sheetId="3" r:id="rId3"/>
+    <sheet name="SETCONNECTION_CONNECTIONS" sheetId="4" r:id="rId4"/>
+    <sheet name="MODEL" sheetId="5" r:id="rId5"/>
+    <sheet name="DATASETS" sheetId="6" r:id="rId6"/>
+    <sheet name="DATASETS_SEGMENTS" sheetId="7" r:id="rId7"/>
+    <sheet name="RELATIONSHIPS" sheetId="8" r:id="rId8"/>
+    <sheet name="DATASETS_FIELDS" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
   <si>
     <t>COD_DATASET</t>
   </si>
@@ -144,51 +150,18 @@
     <t>REFERENCE_COD_DATASET</t>
   </si>
   <si>
-    <t>REFERENCE_COD_NAME</t>
-  </si>
-  <si>
     <t>TARGET_COD_DATASET</t>
   </si>
   <si>
-    <t>TARGET_COD_NAME</t>
-  </si>
-  <si>
-    <t>TARGET_FINAL_COD_NAME</t>
-  </si>
-  <si>
-    <t>COD_TYPE_RELATIONSHIP</t>
-  </si>
-  <si>
-    <t>DS_RL_CUTOMER_NATION</t>
-  </si>
-  <si>
     <t>CUSTOMER_NATION</t>
   </si>
   <si>
-    <t>C_NATION</t>
-  </si>
-  <si>
     <t>DS_CUS_NATION</t>
   </si>
   <si>
-    <t>CN_NATION</t>
-  </si>
-  <si>
-    <t>ID_NATION</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
     <t>Relación de CUD_NATION con CUSTOMER</t>
   </si>
   <si>
-    <t>N_NATION</t>
-  </si>
-  <si>
-    <t>Relación de CUD_NATION con NATION</t>
-  </si>
-  <si>
     <t>ID_TYPE_SEGMENT</t>
   </si>
   <si>
@@ -436,13 +409,30 @@
   </si>
   <si>
     <t>EDW_WH_PRO</t>
+  </si>
+  <si>
+    <t>SW_VIRTUAL_FIELD_VALUE</t>
+  </si>
+  <si>
+    <t>COLUMN_VALUE_DEFAULT_FX</t>
+  </si>
+  <si>
+    <t>H_CUSTKEY</t>
+  </si>
+  <si>
+    <t>Identificador de HIER PERT</t>
+  </si>
+  <si>
+    <t>DS_CUSTOMER_NATION</t>
+  </si>
+  <si>
+    <t>CUTOMER_NATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,16 +457,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF96dcf8"/>
+        <fgColor rgb="FF96DCF8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFb4e5a2"/>
+        <fgColor rgb="FFB4E5A2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -506,45 +496,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -555,10 +554,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -596,71 +595,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -688,7 +687,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -711,11 +710,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -724,13 +723,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -740,7 +739,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -749,7 +748,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -758,7 +757,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -766,10 +765,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -834,7 +833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -842,44 +841,44 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>137</v>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -896,119 +895,118 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="37.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="G2" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H2" s="3">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="3">
         <v>-9</v>
       </c>
     </row>
@@ -1018,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1026,55 +1024,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="74.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1091,88 +1089,88 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="88.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
+      <c r="C7" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1189,33 +1187,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="57.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1224,167 +1222,181 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H3" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="I4" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="J4" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" t="s">
         <v>76</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1393,102 +1405,104 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="3" t="s">
-        <v>55</v>
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1497,28 +1511,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1532,77 +1544,24 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1611,25 +1570,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,188 +1607,221 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/UC/POC/METADATA_SCHEMA.xlsx
+++ b/UC/POC/METADATA_SCHEMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulp\Documents\TFG\meta-vault\UC\POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D81659-85E3-4ECE-9491-0ACAFBFAC2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B5D08-FE31-4D1B-ADF4-F811979E5A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIRONMENTS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
   <si>
     <t>COD_DATASET</t>
   </si>
@@ -243,24 +243,15 @@
     <t>Dataset con todos los paises</t>
   </si>
   <si>
-    <t>DS_HIER_PART</t>
-  </si>
-  <si>
     <t>LINK</t>
   </si>
   <si>
     <t>PAR_PART</t>
   </si>
   <si>
-    <t>HIER_PARTS</t>
-  </si>
-  <si>
     <t>ACTION</t>
   </si>
   <si>
-    <t>HIER_PARTS LINK. Contiene detalles de PART.</t>
-  </si>
-  <si>
     <t>DESC_MODEL</t>
   </si>
   <si>
@@ -288,36 +279,18 @@
     <t>EDW_DATAVAULT_TR_DES</t>
   </si>
   <si>
-    <t>Description for RELATIONSHIP EDW_DATAVAULT Set Connection - EDW_DATAVAULT_DES Connection</t>
-  </si>
-  <si>
     <t>EDW_DATAVAULT_TR_PRE</t>
   </si>
   <si>
-    <t>Description for RELATIONSHIP EDW_DATAVAULT Set Connection - EDW_DATAVAULT_PRE Connection</t>
-  </si>
-  <si>
-    <t>Description for RELATIONSHIP EDW_DATAVAULT Set Connection - EDW_DATAVAULT Connection</t>
-  </si>
-  <si>
     <t>EDW_LAND_RAW_LOW</t>
   </si>
   <si>
-    <t>Description for RELATIONSHIP EDW_LAND_PSA Set Connection - EDW_LAND_PSA_LOW Connection</t>
-  </si>
-  <si>
     <t>EDW_LAND_RAW_MID</t>
   </si>
   <si>
-    <t>Description for RELATIONSHIP EDW_LAND_PSA Set Connection - EDW_LAND_PSA_MID Connection</t>
-  </si>
-  <si>
     <t>EDW_LAND_RAW_BIG</t>
   </si>
   <si>
-    <t>Description for RELATIONSHIP EDW_LAND_PSA Set Connection - EDW_LAND_PSA_BIG Connection</t>
-  </si>
-  <si>
     <t>COD_ENVIRONMENT</t>
   </si>
   <si>
@@ -327,21 +300,12 @@
     <t>DES</t>
   </si>
   <si>
-    <t>Description for RELATIONSHIP DES Environment - EDW_LAND_PSA_LOW Connection</t>
-  </si>
-  <si>
     <t>PRE</t>
   </si>
   <si>
-    <t>Description for RELATIONSHIP PRE Environment - EDW_LAND_PSA_MID Connection</t>
-  </si>
-  <si>
     <t>PRO</t>
   </si>
   <si>
-    <t>Description for RELATIONSHIP PRO Environment - EDW_LAND_PSA_BIG Connection</t>
-  </si>
-  <si>
     <t>COD_AREA_PHASE</t>
   </si>
   <si>
@@ -417,16 +381,31 @@
     <t>COLUMN_VALUE_DEFAULT_FX</t>
   </si>
   <si>
-    <t>H_CUSTKEY</t>
-  </si>
-  <si>
-    <t>Identificador de HIER PERT</t>
-  </si>
-  <si>
     <t>DS_CUSTOMER_NATION</t>
   </si>
   <si>
-    <t>CUTOMER_NATION</t>
+    <t>Descriopcion del entorno DES con la conexión EDW_LAND_PSA_LOW</t>
+  </si>
+  <si>
+    <t>Descriopcion del entorno PRE con la conexión EDW_LAND_RAW_MID</t>
+  </si>
+  <si>
+    <t>Descriopcion del entorno PRO con la conexión EDW_LAND_RAW_BIG</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Datasets de relacion entre los clientes y su pais de procedencia</t>
+  </si>
+  <si>
+    <t>N_PREFIX</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>CASE WHEN N_NAME LIKE 'SPAIN' THEN '+34' ELSE '' END</t>
   </si>
 </sst>
 </file>
@@ -466,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -496,27 +475,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -524,13 +488,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" textRotation="45"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,46 +806,48 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>122</v>
+    <row r="1" spans="1:3" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -893,120 +862,122 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>110</v>
+    <row r="1" spans="1:8" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="3">
+        <v>104</v>
+      </c>
+      <c r="H2" s="1">
         <v>-9</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="3">
+        <v>104</v>
+      </c>
+      <c r="H3" s="1">
         <v>-9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="3">
+        <v>104</v>
+      </c>
+      <c r="H4" s="1">
         <v>-9</v>
       </c>
     </row>
@@ -1022,7 +993,9 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1031,48 +1004,48 @@
     <col min="3" max="3" width="74.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>97</v>
+    <row r="1" spans="1:3" ht="126.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1087,57 +1060,59 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="132.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>83</v>
+      <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1145,10 +1120,10 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,10 +1131,10 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,10 +1142,10 @@
         <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1185,35 +1160,37 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="59.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1226,66 +1203,63 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="97.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1293,37 +1267,34 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
       </c>
       <c r="H2" t="s">
         <v>65</v>
       </c>
       <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
         <v>65</v>
       </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
       <c r="K2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1331,72 +1302,66 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
         <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
       </c>
       <c r="H3" t="s">
         <v>69</v>
       </c>
       <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
         <v>69</v>
       </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
       <c r="K3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
       <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
         <v>73</v>
       </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1411,37 +1376,37 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1452,7 +1417,7 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -1472,7 +1437,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -1487,12 +1452,12 @@
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" t="s">
@@ -1518,38 +1483,38 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="102" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -1577,43 +1542,44 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1621,7 +1587,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1644,7 +1610,7 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -1667,7 +1633,7 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -1690,7 +1656,7 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -1713,7 +1679,7 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -1736,7 +1702,7 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" t="s">
@@ -1759,7 +1725,7 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" t="s">
@@ -1782,7 +1748,7 @@
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -1801,27 +1767,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="4">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="G10" t="s">
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
